--- a/biology/Botanique/Aechmea/Aechmea.xlsx
+++ b/biology/Botanique/Aechmea/Aechmea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea est un genre de plantes de la famille des Bromeliaceae. Il contient environ 250 espèces à l'heure actuelle. La plupart sont des plantes sempervirentes épiphytes. Leurs feuilles plus ou moins épineuses, engainées à la base en une sorte d'entonnoir, forment des rosettes parfois tubulaires, émettant des rejets à la base.
-La plupart des aechmeas se cultivent facilement en serre ou en appartement[1].
+La plupart des aechmeas se cultivent facilement en serre ou en appartement.
 Ce genre est originaire du Mexique à l'Amérique du Sud.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Hoiriri Adans. (1763)
@@ -565,7 +579,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aechmea Baker
 Chevaliera (Gaudichaud ex Beer) Baker
@@ -602,7 +618,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aechmea abbreviata L.B.Sm.
